--- a/Bitacora Incidencias_A.xlsx
+++ b/Bitacora Incidencias_A.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdiazle\Desktop\Respaldo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdiazle\Documents\GitHub\DocEjecucionBots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0779C300-8C7B-4344-A7E1-B2105BDFB89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD7A3A4-A501-4412-8755-644E8538DB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{72B84A4B-976C-4D7E-B731-EC25B8186A46}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{72B84A4B-976C-4D7E-B731-EC25B8186A46}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$2:$I$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$2:$I$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="115">
   <si>
     <t>FECHA</t>
   </si>
@@ -396,6 +397,21 @@
   </si>
   <si>
     <t>César da instrucciones de dar aceptar a la ventana de aviso para que el Autoit siga corriendo. Es un error que en la versión más actualizada ya no sucederá.</t>
+  </si>
+  <si>
+    <t>44_0_2_Fact_Mod_Canc_CC (88)</t>
+  </si>
+  <si>
+    <t>67 Bedetails (88)</t>
+  </si>
+  <si>
+    <t>No descargo todos los archivos</t>
+  </si>
+  <si>
+    <t>Finalizo autoit pero no descargó toda la información de los dos meses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se hace la descarga del mes faltante de manera manual. </t>
   </si>
 </sst>
 </file>
@@ -999,7 +1015,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,7 +1390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>44811</v>
       </c>
@@ -1403,7 +1419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>44811</v>
       </c>
@@ -1432,7 +1448,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>44811</v>
       </c>
@@ -1461,27 +1477,55 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>44816</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="6"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>44816</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
@@ -1803,10 +1847,10 @@
       <c r="I47" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I16" xr:uid="{E4DD5CBE-D75F-430E-80BF-54955A4C5430}">
+  <autoFilter ref="A2:I18" xr:uid="{E4DD5CBE-D75F-430E-80BF-54955A4C5430}">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2022" month="9" day="7" dateTimeGrouping="day"/>
+        <dateGroupItem year="2022" month="9" day="12" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Bitacora Incidencias_A.xlsx
+++ b/Bitacora Incidencias_A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdiazle\Documents\GitHub\DocEjecucionBots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD7A3A4-A501-4412-8755-644E8538DB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C27DE0-BD56-4B4F-8FA4-09F4568EDCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{72B84A4B-976C-4D7E-B731-EC25B8186A46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{72B84A4B-976C-4D7E-B731-EC25B8186A46}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$2:$I$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -67,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="120">
   <si>
     <t>FECHA</t>
   </si>
@@ -412,6 +411,21 @@
   </si>
   <si>
     <t xml:space="preserve">Se hace la descarga del mes faltante de manera manual. </t>
+  </si>
+  <si>
+    <t>Finaliza Autoit sin guardar la información.</t>
+  </si>
+  <si>
+    <t>No se guarda la información descargada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">César comenta que el proceso de ejecución dura más tiempo de lo que se programó por lo cual arroja un error. Se le harán cambios para evitar nuevamente el suceso. </t>
+  </si>
+  <si>
+    <t>69 Descriptivas (88)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">César hará pruebas y cambios para evitar nuevamente el suceso. </t>
   </si>
 </sst>
 </file>
@@ -611,7 +625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -666,6 +680,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1014,8 +1031,8 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,27 +1544,63 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="6"/>
+    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>44817</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>44817</v>
+      </c>
+      <c r="B20" s="4">
+        <v>2</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>

--- a/Bitacora Incidencias_A.xlsx
+++ b/Bitacora Incidencias_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdiazle\Documents\GitHub\DocEjecucionBots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C27DE0-BD56-4B4F-8FA4-09F4568EDCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895084C5-8B46-4746-978C-D7149B1663BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{72B84A4B-976C-4D7E-B731-EC25B8186A46}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="125">
   <si>
     <t>FECHA</t>
   </si>
@@ -426,6 +426,21 @@
   </si>
   <si>
     <t xml:space="preserve">César hará pruebas y cambios para evitar nuevamente el suceso. </t>
+  </si>
+  <si>
+    <t>97 4 Faltantes Suc Producto Nuevo (88)</t>
+  </si>
+  <si>
+    <t>Error al ejecutar.</t>
+  </si>
+  <si>
+    <t>Error al automatizar la información actualizada.</t>
+  </si>
+  <si>
+    <t>César comenta que se debe ir a 3000 controles y ver que la información está actualizada.</t>
+  </si>
+  <si>
+    <t>Resuelto</t>
   </si>
 </sst>
 </file>
@@ -672,6 +687,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -680,9 +698,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1032,7 +1047,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,17 +1062,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
@@ -1580,7 +1595,7 @@
       <c r="B20" s="4">
         <v>2</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="24" t="s">
         <v>118</v>
       </c>
       <c r="D20" s="5" t="s">
@@ -1602,16 +1617,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="6"/>
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>44817</v>
+      </c>
+      <c r="B21" s="4">
+        <v>3</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>

--- a/Bitacora Incidencias_A.xlsx
+++ b/Bitacora Incidencias_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdiazle\Documents\GitHub\DocEjecucionBots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895084C5-8B46-4746-978C-D7149B1663BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7457696A-FE6D-483C-92E9-C837A06445A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{72B84A4B-976C-4D7E-B731-EC25B8186A46}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$2:$I$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$2:$I$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="128">
   <si>
     <t>FECHA</t>
   </si>
@@ -441,6 +441,15 @@
   </si>
   <si>
     <t>Resuelto</t>
+  </si>
+  <si>
+    <t>Error al ejecutar SP</t>
+  </si>
+  <si>
+    <t>Al ejecutar Autoit desde GitHub aparece un error de ejecución casi en el término del proceso.</t>
+  </si>
+  <si>
+    <t>Alex ejecuta el SP por medio del SQL. Comenta que el error viene del tiempo del proceso, se lo comentará a César para dar solución.</t>
   </si>
 </sst>
 </file>
@@ -1046,8 +1055,8 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,7 +1518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>44816</v>
       </c>
@@ -1530,7 +1539,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>44816</v>
       </c>
@@ -1559,7 +1568,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>44817</v>
       </c>
@@ -1588,7 +1597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>44817</v>
       </c>
@@ -1617,7 +1626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>44817</v>
       </c>
@@ -1646,16 +1655,34 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="6"/>
+    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>44823</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
@@ -1933,10 +1960,10 @@
       <c r="I47" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I18" xr:uid="{E4DD5CBE-D75F-430E-80BF-54955A4C5430}">
+  <autoFilter ref="A2:I22" xr:uid="{E4DD5CBE-D75F-430E-80BF-54955A4C5430}">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2022" month="9" day="12" dateTimeGrouping="day"/>
+        <dateGroupItem year="2022" month="9" day="19" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Bitacora Incidencias_A.xlsx
+++ b/Bitacora Incidencias_A.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdiazle\Documents\GitHub\DocEjecucionBots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7457696A-FE6D-483C-92E9-C837A06445A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971FEC58-287B-48B5-A977-6CC0BBCB8402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{72B84A4B-976C-4D7E-B731-EC25B8186A46}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$2:$I$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja2!$A$2:$I$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,6 +39,33 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>mediazb</author>
+  </authors>
+  <commentList>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{4043EA63-DFF6-4D40-BC58-EDBC8BF23163}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">**Atendida: Se revisó pero no se quito el error
+**Resuelta: Se quito el error y no se tienen dudas
+**Pendiente de Respuesta
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>mediazb</author>
@@ -66,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="99">
   <si>
     <t>FECHA</t>
   </si>
@@ -236,135 +263,6 @@
     <t>70 Catalogo Clientes (88)</t>
   </si>
   <si>
-    <t>159 3 Seguimiento Saldos CC</t>
-  </si>
-  <si>
-    <t>159 3 Seguimiento Saldos</t>
-  </si>
-  <si>
-    <t>159 2 Seguimiento HDR CC</t>
-  </si>
-  <si>
-    <t>159 2 Seguimiento HDR</t>
-  </si>
-  <si>
-    <t>159 1 Remisiones Detalle CC</t>
-  </si>
-  <si>
-    <t>159 1 Remisiones Detalle</t>
-  </si>
-  <si>
-    <t>Indicador 88_Global Transacciones</t>
-  </si>
-  <si>
-    <t>64_5_Pendientes_por_Recolectar</t>
-  </si>
-  <si>
-    <t>Pendientes_TWI_56_4_TWI</t>
-  </si>
-  <si>
-    <t>Modificado y cancelado_44_Concentrado_TWI_MC</t>
-  </si>
-  <si>
-    <t>97 4 Faltantes Suc Producto Nuevo_CC</t>
-  </si>
-  <si>
-    <t>97 4 Faltantes Suc Producto Nuevo</t>
-  </si>
-  <si>
-    <t>97 3 Devolucion_No_Facturada_Sucursales_CC</t>
-  </si>
-  <si>
-    <t>97 3 Devolucion_No_Facturada_Sucursales</t>
-  </si>
-  <si>
-    <t>97 2 Entrega Editores_CC</t>
-  </si>
-  <si>
-    <t>97 2 Entrega Editores</t>
-  </si>
-  <si>
-    <t>97 1 Envio Sucursales</t>
-  </si>
-  <si>
-    <t>109_Cortesias_CC</t>
-  </si>
-  <si>
-    <t>109_Cortesias</t>
-  </si>
-  <si>
-    <t>99_88_8_Entradas_MC</t>
-  </si>
-  <si>
-    <t>90_0_Plantilla_Lotes_Devolucion</t>
-  </si>
-  <si>
-    <t>70 Catalogo Clientes</t>
-  </si>
-  <si>
-    <t>69 Descriptivas</t>
-  </si>
-  <si>
-    <t>41_2_Rep_Dif_Pedidos</t>
-  </si>
-  <si>
-    <t>41_Reporte_Diferencias_Pedidos_CC</t>
-  </si>
-  <si>
-    <t>41_1_Rep_Dif_Transacciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No bajo la informacion completa </t>
-  </si>
-  <si>
-    <t>41_1_Rep_Dif_Transacciones_CC</t>
-  </si>
-  <si>
-    <t>No aumentan las cantidades</t>
-  </si>
-  <si>
-    <t>67 Bedetails_CC</t>
-  </si>
-  <si>
-    <t>Incidencia</t>
-  </si>
-  <si>
-    <t>67 Bedetails</t>
-  </si>
-  <si>
-    <t>Correcto</t>
-  </si>
-  <si>
-    <t>106 Canceladas Remision Detalle_CC</t>
-  </si>
-  <si>
-    <t>Sin ejecutar</t>
-  </si>
-  <si>
-    <t>106 Canceladas Remision Detalle</t>
-  </si>
-  <si>
-    <t>44_0_3_Remisiones_Mod_Canc_CC</t>
-  </si>
-  <si>
-    <t>3 44_0_3_Remisiones_Mod_Canc</t>
-  </si>
-  <si>
-    <t>44_0_2_Fact_Mod_Canc_CC</t>
-  </si>
-  <si>
-    <t>44_0_2_Fact_Mod_Canc</t>
-  </si>
-  <si>
-    <t>88 Diario de ventas</t>
-  </si>
-  <si>
-    <t>88 Diario de ventas_CC</t>
-  </si>
-  <si>
-    <t>103 Detalle devoluciones</t>
-  </si>
-  <si>
     <t>44_0_3_Remisiones_Mod_Canc_CC (88)</t>
   </si>
   <si>
@@ -450,13 +348,55 @@
   </si>
   <si>
     <t>Alex ejecuta el SP por medio del SQL. Comenta que el error viene del tiempo del proceso, se lo comentará a César para dar solución.</t>
+  </si>
+  <si>
+    <t>97 1 Envio Sucursales_CC (88)</t>
+  </si>
+  <si>
+    <t>Error al cargar los datos en 3000 controles</t>
+  </si>
+  <si>
+    <t>Dado que la modificación del proyecto lo lleva acabo César, se le comentará el día de mañana 20/09/2022</t>
+  </si>
+  <si>
+    <t>Pendiente de respuesta</t>
+  </si>
+  <si>
+    <t>Se hace prueba en el proyecto y vuelve a arrojar una cantidad mayor a la tendencia, en este caso fue duplicar los datos</t>
+  </si>
+  <si>
+    <t>César pide verificar el GitHub para saber sí se ha descargado la última versión en la computadora de Ana. Dado que es correcto pide ejecutar nuevamente el autoit, no se tiene ningún error.</t>
+  </si>
+  <si>
+    <t>Atendida, aún se tienen dudas.</t>
+  </si>
+  <si>
+    <t>Al validar la información en 3000 controles se encuentra una diferencia de 5 millones por arriba con la cifra de la semana pasada, algo que no es tendencial con el alza de las cifras en semanas anteriores.</t>
+  </si>
+  <si>
+    <t>Indicadores de Proyecto 88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error al actualizar los datos </t>
+  </si>
+  <si>
+    <t>Ana // Paloma</t>
+  </si>
+  <si>
+    <t>César // Rafael</t>
+  </si>
+  <si>
+    <t>Cuando se manda a actualizar el indicador envía el error de SQL y no permite actualizarlo.</t>
+  </si>
+  <si>
+    <t>Pendiente de Respuesta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,14 +425,8 @@
       <name val="Britannic Bold"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,44 +439,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -630,26 +528,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -685,17 +568,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -712,30 +584,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1050,13 +899,593 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DD5CBE-D75F-430E-80BF-54955A4C5430}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFE8874-8752-49EC-9620-21644F94EDCF}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="45" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>44846</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DD5CBE-D75F-430E-80BF-54955A4C5430}">
+  <dimension ref="A1:I47"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,17 +1500,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="27"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
@@ -1112,7 +1541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44804</v>
       </c>
@@ -1129,7 +1558,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>11</v>
@@ -1141,7 +1570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44805</v>
       </c>
@@ -1158,7 +1587,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>17</v>
@@ -1170,7 +1599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44806</v>
       </c>
@@ -1187,7 +1616,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>21</v>
@@ -1199,7 +1628,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>44809</v>
       </c>
@@ -1216,7 +1645,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>30</v>
@@ -1228,7 +1657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>44809</v>
       </c>
@@ -1245,7 +1674,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>28</v>
@@ -1257,7 +1686,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>44809</v>
       </c>
@@ -1274,7 +1703,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>31</v>
@@ -1286,7 +1715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>44809</v>
       </c>
@@ -1303,7 +1732,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>34</v>
@@ -1315,7 +1744,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>44810</v>
       </c>
@@ -1344,7 +1773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>44810</v>
       </c>
@@ -1361,7 +1790,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>53</v>
@@ -1373,7 +1802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>44810</v>
       </c>
@@ -1402,7 +1831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>44810</v>
       </c>
@@ -1431,7 +1860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>44811</v>
       </c>
@@ -1439,10 +1868,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>10</v>
@@ -1451,16 +1880,16 @@
         <v>43</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>44811</v>
       </c>
@@ -1471,25 +1900,25 @@
         <v>8</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>44811</v>
       </c>
@@ -1500,25 +1929,25 @@
         <v>8</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>44816</v>
       </c>
@@ -1526,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="4" t="s">
@@ -1539,7 +1968,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>44816</v>
       </c>
@@ -1547,10 +1976,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>19</v>
@@ -1559,16 +1988,16 @@
         <v>43</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>44817</v>
       </c>
@@ -1579,54 +2008,54 @@
         <v>55</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>44817</v>
       </c>
       <c r="B20" s="4">
         <v>2</v>
       </c>
-      <c r="C20" s="24" t="s">
-        <v>118</v>
+      <c r="C20" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>44817</v>
       </c>
@@ -1634,25 +2063,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1666,7 +2095,7 @@
         <v>55</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>19</v>
@@ -1675,36 +2104,72 @@
         <v>43</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="I22" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="6"/>
+    <row r="23" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>44823</v>
+      </c>
+      <c r="B23" s="4">
+        <v>2</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>44824</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
@@ -1960,13 +2425,7 @@
       <c r="I47" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I22" xr:uid="{E4DD5CBE-D75F-430E-80BF-54955A4C5430}">
-    <filterColumn colId="0">
-      <filters>
-        <dateGroupItem year="2022" month="9" day="19" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:I24" xr:uid="{E4DD5CBE-D75F-430E-80BF-54955A4C5430}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
@@ -1974,238 +2433,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39D5E9D-01AD-43B3-B2B4-EF8519DE3BF3}">
-  <dimension ref="A1:D38"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="48" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="21"/>
-      <c r="D10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:A38">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ROW()=CELL("fila")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Bitacora Incidencias_A.xlsx
+++ b/Bitacora Incidencias_A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdiazle\Documents\GitHub\DocEjecucionBots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971FEC58-287B-48B5-A977-6CC0BBCB8402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C2E349-2114-4E4D-8673-1CE05E479D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{72B84A4B-976C-4D7E-B731-EC25B8186A46}"/>
   </bookViews>
@@ -17,7 +17,8 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja2!$A$2:$I$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$2:$I$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja2!$A$2:$I$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -93,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="153">
   <si>
     <t>FECHA</t>
   </si>
@@ -390,6 +391,168 @@
   </si>
   <si>
     <t>Pendiente de Respuesta</t>
+  </si>
+  <si>
+    <t>BotsRetail_Acuses de recibo_HEB</t>
+  </si>
+  <si>
+    <t>Rafael Mendez</t>
+  </si>
+  <si>
+    <t>La contraseña de la plataforma ha expirado.</t>
+  </si>
+  <si>
+    <t>Se pide a Lupita se comunique con el usuario para que comparta la nueva contraseña.</t>
+  </si>
+  <si>
+    <t>La plataforma pide creación de nueva contraseña por lo cual el bot no puede seguir con la ejecución.</t>
+  </si>
+  <si>
+    <t>BotsRetail_Devoluciones_Soriana</t>
+  </si>
+  <si>
+    <t>Bot se detuvo al no encontrar el elemento html</t>
+  </si>
+  <si>
+    <t>A la mitad de la ejecución se detiene el bot y manda mensaje de error.</t>
+  </si>
+  <si>
+    <t>Se recalibrará bot. Se valida dado que si arrojó data nueva.</t>
+  </si>
+  <si>
+    <t>BotsRetail_Acuses de recibo_Walmart Facturas</t>
+  </si>
+  <si>
+    <t>Bot arroja error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al iniciar ejecución de bot arroja una ventana de error. </t>
+  </si>
+  <si>
+    <t>No se ejecuta nuevamente dado que necesita recalibración.</t>
+  </si>
+  <si>
+    <t>Bot se ejecuta pero no arroja data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El bot se ejecuta y manda mensaje de ejecución con éxito. Al validar no sube la información que aparece en el portal. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se necesita recalibrar. </t>
+  </si>
+  <si>
+    <t>Actualización de contraseña</t>
+  </si>
+  <si>
+    <t>*BotsRetail_Devoluciones_Sanborns *BotsRetail_Ventas_Sanborns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El bot se ejecuta, pero plataforma pide cambio de contraseña. </t>
+  </si>
+  <si>
+    <t>Se solicita a Lupita se comunique con el usuario de la plataforma para que proporcione la nueva contraseña. Por tiempo no se ejecuta bot.</t>
+  </si>
+  <si>
+    <t>BotsRetail_Devoluciones_Liverpool</t>
+  </si>
+  <si>
+    <t>Error al descargar data.</t>
+  </si>
+  <si>
+    <t>En el archivo descargado algunos registros tenían 17 columnas de las 18 esperadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se recalibrará bot. </t>
+  </si>
+  <si>
+    <t>BotsRetail_Acuses de recibo_Walmart AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El bot no descarga cada archivo de acuses de recibo. </t>
+  </si>
+  <si>
+    <t>Al ejecutar el bot abre plataforma, ingresa contraseñas, abre el submenú. Cierra ejecución sin descargar información.</t>
+  </si>
+  <si>
+    <t>BotsRetail_Catalogaciones_Walmart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se descarga información debido a que tiene error la plataforma. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debido a que es un problema fuera del control de los bots, se ejecutará el día de mañana para poder descargar la información. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actualización de driver. </t>
+  </si>
+  <si>
+    <t>Paloma Cruz</t>
+  </si>
+  <si>
+    <t>BotsRetail_Devoluciones</t>
+  </si>
+  <si>
+    <t>Se recalibran.</t>
+  </si>
+  <si>
+    <t>Cambio de contraseña</t>
+  </si>
+  <si>
+    <t>Plataforma pide nueva contraseña.</t>
+  </si>
+  <si>
+    <t>No se ejecuta debido a cambio de contraseña.</t>
+  </si>
+  <si>
+    <t>Atendida.</t>
+  </si>
+  <si>
+    <t>BotsRetail_  Cadena Walmart</t>
+  </si>
+  <si>
+    <t>El bot se ejecuta, pero al buscar la página del portal se tiene el mensaje Forbidden. Se trata de actualizar, sin éxito.</t>
+  </si>
+  <si>
+    <t>No se pueden ejecutar los bots debido a que el driver se ha actualizado.</t>
+  </si>
+  <si>
+    <t>BotsRetail_Ventas_Sanborns</t>
+  </si>
+  <si>
+    <t>BotsRetail_Ventas_Walmart</t>
+  </si>
+  <si>
+    <t>Al validar no hay data nueva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafael Mendez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se ejecuta el bot. Al finalizar aparece la ventana de finalización con éxito. Se valida, pero no hay data nueva como aparece en el portal. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se vuelve a ejecutar, descarga nueva data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aparece ventana de error por tiempo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incidencia por tiempo, el submenú tarda en desplegar. Se despliega la ventana de error por tiempo. </t>
+  </si>
+  <si>
+    <t>Se cambia el CONFIG a 3 días.</t>
+  </si>
+  <si>
+    <t>BotsRetail_Devoluciones_Cityfresko</t>
+  </si>
+  <si>
+    <t>El robot detuvo su ejecución habitual arrojando una ventana de error marcando las líneas que lo cubren.</t>
+  </si>
+  <si>
+    <t>Error en linea 234</t>
+  </si>
+  <si>
+    <t>Uno de los arreglos que ejecuta las iteraciones superaba el número de intentos para la detección de elementos, la corrección fue modificar esa línea para que este no sobrepasara el número de intentos y continuara su ejecución habitual.</t>
   </si>
 </sst>
 </file>
@@ -532,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -570,6 +733,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -900,10 +1072,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFE8874-8752-49EC-9620-21644F94EDCF}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,17 +1091,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="45" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
@@ -959,7 +1132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44846</v>
       </c>
@@ -986,38 +1159,92 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="11"/>
+    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>44848</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>44851</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>44852</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
@@ -1471,46 +1698,57 @@
       <c r="I47" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:I6" xr:uid="{5AFE8874-8752-49EC-9620-21644F94EDCF}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2022" month="10" day="14" dateTimeGrouping="day"/>
+        <dateGroupItem year="2022" month="10" day="17" dateTimeGrouping="day"/>
+        <dateGroupItem year="2022" month="10" day="18" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DD5CBE-D75F-430E-80BF-54955A4C5430}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:I2"/>
+      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45.7109375" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
@@ -1541,7 +1779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44804</v>
       </c>
@@ -1570,7 +1808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44805</v>
       </c>
@@ -1599,7 +1837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44806</v>
       </c>
@@ -1628,7 +1866,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>44809</v>
       </c>
@@ -1657,7 +1895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>44809</v>
       </c>
@@ -1686,7 +1924,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>44809</v>
       </c>
@@ -1715,7 +1953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>44809</v>
       </c>
@@ -1744,7 +1982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>44810</v>
       </c>
@@ -1773,7 +2011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>44810</v>
       </c>
@@ -1802,7 +2040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>44810</v>
       </c>
@@ -1831,7 +2069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>44810</v>
       </c>
@@ -1860,7 +2098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>44811</v>
       </c>
@@ -1889,7 +2127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>44811</v>
       </c>
@@ -1918,7 +2156,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>44811</v>
       </c>
@@ -1947,7 +2185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>44816</v>
       </c>
@@ -1968,7 +2206,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>44816</v>
       </c>
@@ -1997,7 +2235,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>44817</v>
       </c>
@@ -2026,7 +2264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>44817</v>
       </c>
@@ -2055,7 +2293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>44817</v>
       </c>
@@ -2084,7 +2322,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>44823</v>
       </c>
@@ -2113,7 +2351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>44823</v>
       </c>
@@ -2142,7 +2380,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>44824</v>
       </c>
@@ -2171,261 +2409,447 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="6"/>
+    <row r="25" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>44824</v>
+      </c>
+      <c r="B25" s="4">
+        <v>2</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>44825</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>44825</v>
+      </c>
+      <c r="B27" s="4">
+        <v>2</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>44827</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>44830</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>44831</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>44833</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>44833</v>
+      </c>
+      <c r="B32" s="4">
+        <v>2</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>44834</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>44844</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="6"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="6"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="6"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="6"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
+      <c r="A39" s="11"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="6"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="6"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="11"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
+      <c r="A41" s="11"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="6"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
+      <c r="A42" s="11"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="6"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
+      <c r="A43" s="11"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="6"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
+      <c r="A44" s="11"/>
       <c r="B44" s="4"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="6"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="11"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
+      <c r="A45" s="11"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="6"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="11"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
+      <c r="A46" s="11"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="6"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="11"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
+      <c r="A47" s="11"/>
       <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="6"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I24" xr:uid="{E4DD5CBE-D75F-430E-80BF-54955A4C5430}"/>
+  <autoFilter ref="A2:I34" xr:uid="{E4DD5CBE-D75F-430E-80BF-54955A4C5430}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2022" month="10" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
